--- a/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,5</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,51%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,62%</t>
+          <t>-15,31%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 4,45</t>
+          <t>-26,05; 16,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -0,0</t>
+          <t>-24,59; 21,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 16,03</t>
+          <t>-57,68; 80,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 1,11</t>
+          <t>-54,9; 106,41</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-10,42%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 7,2</t>
+          <t>-10,76; 8,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 5,53</t>
+          <t>-12,92; 6,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 32,99</t>
+          <t>-32,36; 41,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 24,71</t>
+          <t>-38,37; 28,87</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>46,13%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 11,89</t>
+          <t>-1,22; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 14,08</t>
+          <t>-1,5; 17,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 92,74</t>
+          <t>-9,62; 149,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 115,6</t>
+          <t>-8,08; 152,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 23,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 19,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 8,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 7,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 38,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-21,59; 34,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,37%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-15,31%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.555984133747328</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.240281326279776</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1937053473061008</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2441142126801605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-26,05; 16,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,59; 21,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-57,68; 80,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-54,9; 106,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.04821712666848</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-29.9571497804605</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.576818344226054</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5930981290986885</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.39928686240869</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.54833750578857</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.8076703798396264</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7745210964921304</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 8,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 6,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-32,36; 41,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-38,37; 28,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5369895282731185</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.792831140232277</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01995609849622505</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1003461949987131</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>45,88%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>46,13%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.75940402595819</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.07537721227682</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3235589031932192</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3833773266494977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 17,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 17,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 149,04</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 152,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.472755370370928</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.833753554900689</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.412697800566159</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3024098762971884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.860601900780831</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.98105157429945</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4588181416554087</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.453940938155883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.216796276540545</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.102926093821713</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.0962482250086112</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.152083783753987</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.96428514558082</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.03428055286034</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.490385591750113</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.575674800890387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 8,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 7,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; 38,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 34,62</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.76819503839998</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4524911784978991</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.07319676997120156</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01789687018149651</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.01081837944665</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.004661686804865</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1796706987010742</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2274366871610434</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.053737543161759</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.985888501801917</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3815236357790879</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3312981329624573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
